--- a/결과정리.xlsx
+++ b/결과정리.xlsx
@@ -1,38 +1,292 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2303\terrorism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geonno\terrorism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AAC2771-E69A-4298-89AA-EE59A01E23BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4A8AEC-A950-496B-BEFB-D44239DDD393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B4C5D48F-8871-4278-9B1E-9A71E8EC0C9F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B4C5D48F-8871-4278-9B1E-9A71E8EC0C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="1번" sheetId="1" r:id="rId1"/>
     <sheet name="2번" sheetId="2" r:id="rId2"/>
     <sheet name="3번" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2번'!$B$3:$I$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3번'!$B$16:$E$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>윤건호</author>
+  </authors>
+  <commentList>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{12A32A4C-BBE2-45E6-9946-6EC1ED8C1E4F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>윤건호</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{075C3378-D95B-4BF4-943B-D82850B754F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>윤건호</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{4768C59F-946E-4944-9FAA-3C70A8D5151D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>윤건호</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{37072B44-86D9-4E4D-8AAF-792CC0BA59B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>윤건호</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{B39E86AE-D650-47FC-B5A0-491EB3462BD9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>윤건호</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{36C19A75-57CE-4E92-971D-A3760510E73F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>윤건호</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F34" authorId="0" shapeId="0" xr:uid="{64C92388-A952-4B38-B25B-55FBAF65126D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>윤건호</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="62">
   <si>
     <t>테러 대상</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,41 +374,193 @@
     <t xml:space="preserve"> Private citizens &amp; Property</t>
   </si>
   <si>
+    <t xml:space="preserve"> Journalists &amp; Media</t>
+  </si>
+  <si>
     <t>Religious Figures/Institutions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private citizens &amp; Property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Military</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Police</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Government</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>africa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>europe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Educational Institution</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Food or Water Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journalists &amp; Media</t>
-  </si>
-  <si>
-    <t>Religious Figures/Institutions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transportation</t>
-  </si>
-  <si>
-    <t>Private citizens &amp; Property</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Police</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Airports &amp; Aircraft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food or Water Supply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Educational Institution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transportation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terrorists/Non-state Militia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telecommunication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journalists &amp; Media</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수 등수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011~2015
+민간 8
+정부 4
+민간에 대한 테러의
+양상이 나타남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016~2020
+민간 9
+정부 5
+민간에 대한 테러의
+양상이 나타남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001~2005
+민간 5
+정부 2
+민간에 대한 테러의
+양상이 나타남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006~2010
+민간 8
+정부 5
+민간에 대한 테러의
+양상이 나타남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011~2015
+민간 5
+정부 6
+비슷한 테러의 양상이
+나타남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001~2005
+민간 2
+정부 3
+비슷한 테러의 양상이
+나타남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016~2020
+민간 3
+정부 6
+정부에 대한 테러의
+양상이 나타남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006~2010
+민간 2
+정부 6
+정부에 대한 테러의
+양상이 나타남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011~2015
+민간 5
+정부 8
+정부에 대한 테러의
+양상이 나타남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,16 +576,43 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -239,24 +672,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -264,14 +717,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,135 +1082,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79A9E9-97EE-4962-8B0A-FC08CA99B990}">
-  <dimension ref="C5:J9"/>
+  <dimension ref="D5:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D5" s="2" t="s">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D28" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
+  <mergeCells count="3">
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -724,338 +1259,1565 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA337F6C-9218-4F83-A998-773898878527}">
-  <dimension ref="D5:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA337F6C-9218-4F83-A998-773898878527}">
+  <dimension ref="B2:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.4140625" customWidth="1"/>
+    <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.75" customWidth="1"/>
+    <col min="12" max="12" width="8.08203125" customWidth="1"/>
+    <col min="13" max="13" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
+    <col min="22" max="22" width="12.25" customWidth="1"/>
+    <col min="23" max="23" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="19"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="12">
+        <f>COUNTIF($C$4:$C$34,M3)</f>
         <v>2</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="O3" s="1">
+        <f>RANK(N3,$N$3:$N$17)</f>
+        <v>6</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="17">
+        <f>COUNTIF($I$4:$I$29,M3)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <f>RANK(R3,$R$3:$R$17)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="16">
+        <f>COUNTIF($C$4:$C$34,M4)</f>
         <v>3</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="O4" s="15">
+        <f>RANK(N4,$N$3:$N$17)</f>
+        <v>2</v>
+      </c>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="18">
+        <f>COUNTIF($I$4:$I$29,M4)</f>
+        <v>3</v>
+      </c>
+      <c r="S4" s="15">
+        <f>RANK(R4,$R$3:$R$17)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="8"/>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="M5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="16">
+        <f>COUNTIF($C$4:$C$34,M5)</f>
+        <v>2</v>
+      </c>
+      <c r="O5" s="15">
+        <f>RANK(N5,$N$3:$N$17)</f>
+        <v>6</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="18">
+        <f>COUNTIF($I$4:$I$29,M5)</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="15">
+        <f>RANK(R5,$R$3:$R$17)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="8"/>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="M6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="16">
+        <f>COUNTIF($C$4:$C$34,M6)</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="15">
+        <f>RANK(N6,$N$3:$N$17)</f>
+        <v>11</v>
+      </c>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="18">
+        <f>COUNTIF($I$4:$I$29,M6)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="15">
+        <f>RANK(R6,$R$3:$R$17)</f>
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3" t="s">
+    </row>
+    <row r="7" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8"/>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="M7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="16">
+        <f>COUNTIF($C$4:$C$34,M7)</f>
+        <v>5</v>
+      </c>
+      <c r="O7" s="15">
+        <f>RANK(N7,$N$3:$N$17)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="18">
+        <f>COUNTIF($I$4:$I$29,M7)</f>
+        <v>5</v>
+      </c>
+      <c r="S7" s="15">
+        <f>RANK(R7,$R$3:$R$17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="8"/>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="M8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="16">
+        <f>COUNTIF($C$4:$C$34,M8)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="15">
+        <f>RANK(N8,$N$3:$N$17)</f>
+        <v>14</v>
+      </c>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="18">
+        <f>COUNTIF($I$4:$I$29,M8)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="15">
+        <f>RANK(R8,$R$3:$R$17)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B9" s="8"/>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="16">
+        <f>COUNTIF($C$4:$C$34,M9)</f>
+        <v>3</v>
+      </c>
+      <c r="O9" s="15">
+        <f>RANK(N9,$N$3:$N$17)</f>
+        <v>2</v>
+      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="18">
+        <f>COUNTIF($I$4:$I$29,M9)</f>
+        <v>3</v>
+      </c>
+      <c r="S9" s="15">
+        <f>RANK(R9,$R$3:$R$17)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B10" s="8"/>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="M10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="16">
+        <f>COUNTIF($C$4:$C$34,M10)</f>
+        <v>2</v>
+      </c>
+      <c r="O10" s="15">
+        <f>RANK(N10,$N$3:$N$17)</f>
+        <v>6</v>
+      </c>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="18">
+        <f>COUNTIF($I$4:$I$29,M10)</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="15">
+        <f>RANK(R10,$R$3:$R$17)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B11" s="8"/>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="M11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="16">
+        <f>COUNTIF($C$4:$C$34,M11)</f>
+        <v>3</v>
+      </c>
+      <c r="O11" s="15">
+        <f>RANK(N11,$N$3:$N$17)</f>
+        <v>2</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="18">
+        <f>COUNTIF($I$4:$I$29,M11)</f>
+        <v>3</v>
+      </c>
+      <c r="S11" s="15">
+        <f>RANK(R11,$R$3:$R$17)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B12" s="8"/>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="M12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="16">
+        <f>COUNTIF($C$4:$C$34,M12)</f>
+        <v>3</v>
+      </c>
+      <c r="O12" s="15">
+        <f>RANK(N12,$N$3:$N$17)</f>
+        <v>2</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="18">
+        <f>COUNTIF($I$4:$I$29,M12)</f>
+        <v>3</v>
+      </c>
+      <c r="S12" s="15">
+        <f>RANK(R12,$R$3:$R$17)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B13" s="8"/>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="M13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="12">
+        <f>COUNTIF($C$4:$C$34,M13)</f>
+        <v>2</v>
+      </c>
+      <c r="O13" s="1">
+        <f>RANK(N13,$N$3:$N$17)</f>
+        <v>6</v>
+      </c>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="18">
+        <f>COUNTIF($I$4:$I$29,M13)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="15">
+        <f>RANK(R13,$R$3:$R$17)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B14" s="8"/>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="M14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="12">
+        <f>COUNTIF($C$4:$C$34,M14)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <f>RANK(N14,$N$3:$N$17)</f>
+        <v>14</v>
+      </c>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="17">
+        <f>COUNTIF($I$4:$I$29,M14)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <f>RANK(R14,$R$3:$R$17)</f>
         <v>13</v>
       </c>
-      <c r="H7" s="2" t="s">
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B15" s="8"/>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="M15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="12">
+        <f>COUNTIF($C$4:$C$34,M15)</f>
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <f>RANK(N15,$N$3:$N$17)</f>
+        <v>6</v>
+      </c>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" s="17">
+        <f>COUNTIF($I$4:$I$29,M15)</f>
+        <v>2</v>
+      </c>
+      <c r="S15" s="1">
+        <f>RANK(R15,$R$3:$R$17)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B16" s="8"/>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="M16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="12">
+        <f>COUNTIF($C$4:$C$34,M16)</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <f>RANK(N16,$N$3:$N$17)</f>
+        <v>11</v>
+      </c>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="17">
+        <f>COUNTIF($I$4:$I$29,M16)</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <f>RANK(R16,$R$3:$R$17)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B17" s="8"/>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="12">
+        <f>COUNTIF($C$4:$C$34,M17)</f>
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <f>RANK(N17,$N$3:$N$17)</f>
+        <v>11</v>
+      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" s="17">
+        <f>COUNTIF($I$4:$I$29,M17)</f>
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <f>RANK(R17,$R$3:$R$17)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B18" s="8"/>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B19" s="8"/>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="M19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="M20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="15">
+        <f>COUNTIF($F$4:$F$43,I20)</f>
+        <v>3</v>
+      </c>
+      <c r="O20" s="15">
+        <f>RANK(N20,$N$20:$N$34)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B21" s="8"/>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="M21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="15">
+        <f>COUNTIF($F$4:$F$43,I21)</f>
         <v>4</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="O21" s="15">
+        <f>RANK(N21,$N$20:$N$34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B22" s="8"/>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="M22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="15">
+        <f>COUNTIF($F$4:$F$43,I22)</f>
+        <v>3</v>
+      </c>
+      <c r="O22" s="15">
+        <f>RANK(N22,$N$20:$N$34)</f>
         <v>5</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2" t="s">
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="M23" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="15">
+        <f>COUNTIF($F$4:$F$43,I23)</f>
+        <v>1</v>
+      </c>
+      <c r="O23" s="15">
+        <f>RANK(N23,$N$20:$N$34)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="M24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="15">
+        <f>COUNTIF($F$4:$F$43,I24)</f>
+        <v>4</v>
+      </c>
+      <c r="O24" s="15">
+        <f>RANK(N24,$N$20:$N$34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B25" s="8"/>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="M25" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="15">
+        <f>COUNTIF($F$4:$F$43,I25)</f>
+        <v>3</v>
+      </c>
+      <c r="O25" s="15">
+        <f>RANK(N25,$N$20:$N$34)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B26" s="8"/>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="M26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="15">
+        <f>COUNTIF($F$4:$F$43,I26)</f>
+        <v>1</v>
+      </c>
+      <c r="O26" s="15">
+        <f>RANK(N26,$N$20:$N$34)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B27" s="8"/>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="M27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="15">
+        <f>COUNTIF($F$4:$F$43,I27)</f>
+        <v>2</v>
+      </c>
+      <c r="O27" s="15">
+        <f>RANK(N27,$N$20:$N$34)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B28" s="8"/>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="M28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="15">
+        <f>COUNTIF($F$4:$F$43,I28)</f>
+        <v>4</v>
+      </c>
+      <c r="O28" s="15">
+        <f>RANK(N28,$N$20:$N$34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B29" s="8"/>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="M29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="15">
+        <f>COUNTIF($F$4:$F$43,I29)</f>
+        <v>4</v>
+      </c>
+      <c r="O29" s="15">
+        <f>RANK(N29,$N$20:$N$34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B30" s="8"/>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="M30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="N30" s="15">
+        <f>COUNTIF($F$4:$F$43,I30)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
+        <f>RANK(N30,$N$20:$N$34)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B31" s="8"/>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="M31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" s="15">
+        <f>COUNTIF($F$4:$F$43,I31)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="15">
+        <f>RANK(N31,$N$20:$N$34)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B32" s="8"/>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="M32" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="15">
+        <f>COUNTIF($F$4:$F$43,I32)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="15">
+        <f>RANK(N32,$N$20:$N$34)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B33" s="8"/>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="M33" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N33" s="15">
+        <f>COUNTIF($F$4:$F$43,I33)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="15">
+        <f>RANK(N33,$N$20:$N$34)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="8"/>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="M34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" s="15">
+        <f>COUNTIF($F$4:$F$43,I34)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="15">
+        <f>RANK(N34,$N$20:$N$34)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B35" s="8"/>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B36" s="8"/>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B37" s="8"/>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B38" s="8"/>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B39" s="8"/>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B40" s="8"/>
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B41" s="8"/>
+      <c r="F41" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B42" s="8"/>
+      <c r="F42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B43" s="8"/>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B44" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
+  <autoFilter ref="B3:I44" xr:uid="{DA337F6C-9218-4F83-A998-773898878527}"/>
+  <mergeCells count="11">
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K16"/>
+    <mergeCell ref="K17:K29"/>
+    <mergeCell ref="B4:B43"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E9:E20"/>
+    <mergeCell ref="E21:E34"/>
+    <mergeCell ref="H4:H10"/>
+    <mergeCell ref="H11:H23"/>
+    <mergeCell ref="H24:H34"/>
+    <mergeCell ref="H35:H43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FA090D-D849-4204-A222-3179D2C7E8F8}">
-  <dimension ref="B4:H13"/>
+  <dimension ref="B4:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="1"/>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1063,92 +2825,332 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="8"/>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="8"/>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="8"/>
+      <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="8"/>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="8"/>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="8"/>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="8"/>
+      <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>24</v>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="8"/>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="8"/>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="8"/>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="8"/>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="8"/>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="8"/>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="8"/>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" s="8"/>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="8"/>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <autoFilter ref="B16:E41" xr:uid="{05FA090D-D849-4204-A222-3179D2C7E8F8}"/>
+  <mergeCells count="7">
+    <mergeCell ref="B17:B36"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>

--- a/결과정리.xlsx
+++ b/결과정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geonno\terrorism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4A8AEC-A950-496B-BEFB-D44239DDD393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80484803-AC8C-4EE8-AFDC-5E1BEB068A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B4C5D48F-8871-4278-9B1E-9A71E8EC0C9F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{B4C5D48F-8871-4278-9B1E-9A71E8EC0C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="1번" sheetId="1" r:id="rId1"/>
@@ -30,261 +30,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>윤건호</author>
-  </authors>
-  <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{12A32A4C-BBE2-45E6-9946-6EC1ED8C1E4F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>윤건호</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{075C3378-D95B-4BF4-943B-D82850B754F2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>윤건호</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{4768C59F-946E-4944-9FAA-3C70A8D5151D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>윤건호</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{37072B44-86D9-4E4D-8AAF-792CC0BA59B7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>윤건호</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{B39E86AE-D650-47FC-B5A0-491EB3462BD9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>윤건호</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{36C19A75-57CE-4E92-971D-A3760510E73F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>윤건호</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F34" authorId="0" shapeId="0" xr:uid="{64C92388-A952-4B38-B25B-55FBAF65126D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>윤건호</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="62">
   <si>
@@ -560,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,27 +320,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -704,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,13 +444,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -741,32 +477,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1084,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79A9E9-97EE-4962-8B0A-FC08CA99B990}">
   <dimension ref="D5:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -1104,18 +819,18 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
@@ -1232,19 +947,19 @@
       <c r="L9" s="1"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D24" s="8"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D25" s="8"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D26" s="8"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D27" s="8"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D28" s="8"/>
+      <c r="D28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1259,11 +974,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA337F6C-9218-4F83-A998-773898878527}">
-  <dimension ref="B2:T44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA337F6C-9218-4F83-A998-773898878527}">
+  <dimension ref="B2:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1291,29 +1006,27 @@
     <col min="24" max="24" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.45">
       <c r="M2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="19"/>
       <c r="Q2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="19"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>34</v>
       </c>
@@ -1344,29 +1057,28 @@
       <c r="M3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="12">
-        <f>COUNTIF($C$4:$C$34,M3)</f>
+      <c r="N3" s="6">
+        <f t="shared" ref="N3:N17" si="0">COUNTIF($C$4:$C$34,M3)</f>
         <v>2</v>
       </c>
       <c r="O3" s="1">
-        <f>RANK(N3,$N$3:$N$17)</f>
+        <f t="shared" ref="O3:O17" si="1">RANK(N3,$N$3:$N$17)</f>
         <v>6</v>
       </c>
-      <c r="P3" s="13"/>
       <c r="Q3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="17">
-        <f>COUNTIF($I$4:$I$29,M3)</f>
+      <c r="R3" s="9">
+        <f t="shared" ref="R3:R17" si="2">COUNTIF($I$4:$I$29,M3)</f>
         <v>1</v>
       </c>
       <c r="S3" s="1">
-        <f>RANK(R3,$R$3:$R$17)</f>
+        <f t="shared" ref="S3:S17" si="3">RANK(R3,$R$3:$R$17)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
@@ -1375,7 +1087,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F4" t="s">
@@ -1384,7 +1096,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>54</v>
       </c>
       <c r="I4" t="s">
@@ -1393,230 +1105,225 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="16">
-        <f>COUNTIF($C$4:$C$34,M4)</f>
+      <c r="N4" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O4" s="15">
-        <f>RANK(N4,$N$3:$N$17)</f>
+      <c r="O4" s="7">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="18">
-        <f>COUNTIF($I$4:$I$29,M4)</f>
+      <c r="R4" s="10">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="S4" s="15">
-        <f>RANK(R4,$R$3:$R$17)</f>
+      <c r="S4" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="8"/>
+    <row r="5" spans="2:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="12"/>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="12"/>
       <c r="F5" t="s">
         <v>33</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="16"/>
       <c r="I5" t="s">
         <v>31</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="M5" s="15" t="s">
+      <c r="K5" s="12"/>
+      <c r="M5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="16">
-        <f>COUNTIF($C$4:$C$34,M5)</f>
+      <c r="N5" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O5" s="15">
-        <f>RANK(N5,$N$3:$N$17)</f>
+      <c r="O5" s="7">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="18">
-        <f>COUNTIF($I$4:$I$29,M5)</f>
-        <v>1</v>
-      </c>
-      <c r="S5" s="15">
-        <f>RANK(R5,$R$3:$R$17)</f>
+      <c r="R5" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="8"/>
+    <row r="6" spans="2:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="12"/>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="12"/>
       <c r="F6" t="s">
         <v>31</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="16"/>
       <c r="I6" t="s">
         <v>28</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="M6" s="15" t="s">
+      <c r="K6" s="12"/>
+      <c r="M6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="16">
-        <f>COUNTIF($C$4:$C$34,M6)</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="15">
-        <f>RANK(N6,$N$3:$N$17)</f>
+      <c r="N6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="18">
-        <f>COUNTIF($I$4:$I$29,M6)</f>
+      <c r="R6" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S6" s="15">
-        <f>RANK(R6,$R$3:$R$17)</f>
+      <c r="S6" s="7">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="8"/>
+    <row r="7" spans="2:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="12"/>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="12"/>
       <c r="F7" t="s">
         <v>28</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="16"/>
       <c r="I7" t="s">
         <v>32</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="M7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="16">
-        <f>COUNTIF($C$4:$C$34,M7)</f>
+      <c r="K7" s="12"/>
+      <c r="M7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O7" s="15">
-        <f>RANK(N7,$N$3:$N$17)</f>
-        <v>1</v>
-      </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="18">
-        <f>COUNTIF($I$4:$I$29,M7)</f>
+      <c r="O7" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="S7" s="15">
-        <f>RANK(R7,$R$3:$R$17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="8"/>
+      <c r="S7" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="12"/>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="12"/>
       <c r="F8" t="s">
         <v>37</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="16"/>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="M8" s="15" t="s">
+      <c r="K8" s="12"/>
+      <c r="M8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="16">
-        <f>COUNTIF($C$4:$C$34,M8)</f>
+      <c r="N8" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O8" s="15">
-        <f>RANK(N8,$N$3:$N$17)</f>
+      <c r="O8" s="7">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="R8" s="18">
-        <f>COUNTIF($I$4:$I$29,M8)</f>
+      <c r="R8" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S8" s="15">
-        <f>RANK(R8,$R$3:$R$17)</f>
+      <c r="S8" s="7">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B9" s="8"/>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B9" s="12"/>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F9" t="s">
@@ -1625,103 +1332,101 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="16"/>
       <c r="I9" t="s">
         <v>33</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="16">
-        <f>COUNTIF($C$4:$C$34,M9)</f>
+      <c r="N9" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O9" s="15">
-        <f>RANK(N9,$N$3:$N$17)</f>
+      <c r="O9" s="7">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="18">
-        <f>COUNTIF($I$4:$I$29,M9)</f>
+      <c r="R9" s="10">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="S9" s="15">
-        <f>RANK(R9,$R$3:$R$17)</f>
+      <c r="S9" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B10" s="8"/>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B10" s="12"/>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="12"/>
       <c r="F10" t="s">
         <v>38</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="16"/>
       <c r="I10" t="s">
         <v>30</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="M10" s="15" t="s">
+      <c r="K10" s="12"/>
+      <c r="M10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="16">
-        <f>COUNTIF($C$4:$C$34,M10)</f>
+      <c r="N10" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O10" s="15">
-        <f>RANK(N10,$N$3:$N$17)</f>
+      <c r="O10" s="7">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="18">
-        <f>COUNTIF($I$4:$I$29,M10)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="15">
-        <f>RANK(R10,$R$3:$R$17)</f>
+      <c r="R10" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="7">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B11" s="8"/>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B11" s="12"/>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="12"/>
       <c r="F11" t="s">
         <v>26</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="16" t="s">
         <v>55</v>
       </c>
       <c r="I11" t="s">
@@ -1730,362 +1435,355 @@
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="M11" s="15" t="s">
+      <c r="K11" s="12"/>
+      <c r="M11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="16">
-        <f>COUNTIF($C$4:$C$34,M11)</f>
+      <c r="N11" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O11" s="15">
-        <f>RANK(N11,$N$3:$N$17)</f>
+      <c r="O11" s="7">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="18">
-        <f>COUNTIF($I$4:$I$29,M11)</f>
+      <c r="R11" s="10">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="S11" s="15">
-        <f>RANK(R11,$R$3:$R$17)</f>
+      <c r="S11" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B12" s="8"/>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B12" s="12"/>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="12"/>
       <c r="F12" t="s">
         <v>39</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="12"/>
       <c r="I12" t="s">
         <v>33</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="M12" s="15" t="s">
+      <c r="K12" s="12"/>
+      <c r="M12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="16">
-        <f>COUNTIF($C$4:$C$34,M12)</f>
+      <c r="N12" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O12" s="15">
-        <f>RANK(N12,$N$3:$N$17)</f>
+      <c r="O12" s="7">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="18">
-        <f>COUNTIF($I$4:$I$29,M12)</f>
+      <c r="R12" s="10">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="S12" s="15">
-        <f>RANK(R12,$R$3:$R$17)</f>
+      <c r="S12" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B13" s="8"/>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B13" s="12"/>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="12"/>
       <c r="F13" t="s">
         <v>25</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="12"/>
       <c r="I13" t="s">
         <v>31</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="12"/>
       <c r="M13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="12">
-        <f>COUNTIF($C$4:$C$34,M13)</f>
+      <c r="N13" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O13" s="1">
-        <f>RANK(N13,$N$3:$N$17)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="18">
-        <f>COUNTIF($I$4:$I$29,M13)</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="15">
-        <f>RANK(R13,$R$3:$R$17)</f>
+      <c r="R13" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="7">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B14" s="8"/>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B14" s="12"/>
       <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="12"/>
       <c r="F14" t="s">
         <v>32</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="12"/>
       <c r="I14" t="s">
         <v>44</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="12"/>
       <c r="M14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="12">
-        <f>COUNTIF($C$4:$C$34,M14)</f>
+      <c r="N14" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <f>RANK(N14,$N$3:$N$17)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="P14" s="13"/>
       <c r="Q14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R14" s="17">
-        <f>COUNTIF($I$4:$I$29,M14)</f>
+      <c r="R14" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <f>RANK(R14,$R$3:$R$17)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B15" s="8"/>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B15" s="12"/>
       <c r="C15" t="s">
         <v>44</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="12"/>
       <c r="F15" t="s">
         <v>28</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="12"/>
       <c r="I15" t="s">
         <v>32</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="12"/>
       <c r="M15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="12">
-        <f>COUNTIF($C$4:$C$34,M15)</f>
+      <c r="N15" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O15" s="1">
-        <f>RANK(N15,$N$3:$N$17)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P15" s="13"/>
       <c r="Q15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R15" s="17">
-        <f>COUNTIF($I$4:$I$29,M15)</f>
+      <c r="R15" s="9">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="S15" s="1">
-        <f>RANK(R15,$R$3:$R$17)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B16" s="8"/>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B16" s="12"/>
       <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="12"/>
       <c r="F16" t="s">
         <v>31</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="12"/>
       <c r="I16" t="s">
         <v>42</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="12"/>
       <c r="M16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="12">
-        <f>COUNTIF($C$4:$C$34,M16)</f>
+      <c r="N16" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O16" s="1">
-        <f>RANK(N16,$N$3:$N$17)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P16" s="13"/>
       <c r="Q16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="17">
-        <f>COUNTIF($I$4:$I$29,M16)</f>
+      <c r="R16" s="9">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S16" s="1">
-        <f>RANK(R16,$R$3:$R$17)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B17" s="8"/>
+      <c r="B17" s="12"/>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="12"/>
       <c r="F17" t="s">
         <v>33</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="12"/>
       <c r="I17" t="s">
         <v>26</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="16" t="s">
         <v>61</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N17" s="12">
-        <f>COUNTIF($C$4:$C$34,M17)</f>
+      <c r="N17" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O17" s="1">
-        <f>RANK(N17,$N$3:$N$17)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P17" s="13"/>
       <c r="Q17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R17" s="17">
-        <f>COUNTIF($I$4:$I$29,M17)</f>
+      <c r="R17" s="9">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S17" s="1">
-        <f>RANK(R17,$R$3:$R$17)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B18" s="8"/>
+      <c r="B18" s="12"/>
       <c r="C18" t="s">
         <v>32</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="12"/>
       <c r="F18" t="s">
         <v>40</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="12"/>
       <c r="I18" t="s">
         <v>31</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B19" s="8"/>
+      <c r="B19" s="12"/>
       <c r="C19" t="s">
         <v>41</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="12"/>
       <c r="F19" t="s">
         <v>41</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="12"/>
       <c r="I19" t="s">
         <v>25</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="12"/>
       <c r="M19" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,52 +1793,51 @@
       <c r="O19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P19" s="19"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B20" s="8"/>
+      <c r="B20" s="12"/>
       <c r="C20" t="s">
         <v>38</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="12"/>
       <c r="F20" t="s">
         <v>42</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="12"/>
       <c r="I20" t="s">
         <v>44</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="M20" s="15" t="s">
+      <c r="K20" s="12"/>
+      <c r="M20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="15">
-        <f>COUNTIF($F$4:$F$43,I20)</f>
+      <c r="N20" s="7">
+        <f t="shared" ref="N20:N34" si="4">COUNTIF($F$4:$F$43,I20)</f>
         <v>3</v>
       </c>
-      <c r="O20" s="15">
-        <f>RANK(N20,$N$20:$N$34)</f>
+      <c r="O20" s="7">
+        <f t="shared" ref="O20:O34" si="5">RANK(N20,$N$20:$N$34)</f>
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B21" s="8"/>
+      <c r="B21" s="12"/>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="16" t="s">
         <v>53</v>
       </c>
       <c r="F21" t="s">
@@ -2149,112 +1846,112 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="12"/>
       <c r="I21" t="s">
         <v>28</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="M21" s="15" t="s">
+      <c r="K21" s="12"/>
+      <c r="M21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N21" s="15">
-        <f>COUNTIF($F$4:$F$43,I21)</f>
+      <c r="N21" s="7">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O21" s="15">
-        <f>RANK(N21,$N$20:$N$34)</f>
+      <c r="O21" s="7">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B22" s="8"/>
+      <c r="B22" s="12"/>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="12"/>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="12"/>
       <c r="I22" t="s">
         <v>32</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="M22" s="15" t="s">
+      <c r="K22" s="12"/>
+      <c r="M22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="15">
-        <f>COUNTIF($F$4:$F$43,I22)</f>
+      <c r="N22" s="7">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O22" s="15">
-        <f>RANK(N22,$N$20:$N$34)</f>
+      <c r="O22" s="7">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B23" s="8"/>
+      <c r="B23" s="12"/>
       <c r="C23" t="s">
         <v>39</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="12"/>
       <c r="F23" t="s">
         <v>30</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="12"/>
       <c r="I23" t="s">
         <v>38</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="M23" s="15" t="s">
+      <c r="K23" s="12"/>
+      <c r="M23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N23" s="15">
-        <f>COUNTIF($F$4:$F$43,I23)</f>
-        <v>1</v>
-      </c>
-      <c r="O23" s="15">
-        <f>RANK(N23,$N$20:$N$34)</f>
+      <c r="N23" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:19" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="8"/>
+      <c r="B24" s="12"/>
       <c r="C24" t="s">
         <v>44</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="12"/>
       <c r="F24" t="s">
         <v>26</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="16" t="s">
         <v>56</v>
       </c>
       <c r="I24" t="s">
@@ -2263,428 +1960,428 @@
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="M24" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="15">
-        <f>COUNTIF($F$4:$F$43,I24)</f>
+      <c r="K24" s="12"/>
+      <c r="M24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O24" s="15">
-        <f>RANK(N24,$N$20:$N$34)</f>
+      <c r="O24" s="7">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B25" s="8"/>
+      <c r="B25" s="12"/>
       <c r="C25" t="s">
         <v>28</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="12"/>
       <c r="F25" t="s">
         <v>28</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="16"/>
       <c r="I25" t="s">
         <v>40</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="M25" s="15" t="s">
+      <c r="K25" s="12"/>
+      <c r="M25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N25" s="15">
-        <f>COUNTIF($F$4:$F$43,I25)</f>
+      <c r="N25" s="7">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O25" s="15">
-        <f>RANK(N25,$N$20:$N$34)</f>
+      <c r="O25" s="7">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B26" s="8"/>
+      <c r="B26" s="12"/>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="12"/>
       <c r="F26" t="s">
         <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="16"/>
       <c r="I26" t="s">
         <v>41</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="M26" s="15" t="s">
+      <c r="K26" s="12"/>
+      <c r="M26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="15">
-        <f>COUNTIF($F$4:$F$43,I26)</f>
-        <v>1</v>
-      </c>
-      <c r="O26" s="15">
-        <f>RANK(N26,$N$20:$N$34)</f>
+      <c r="N26" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B27" s="8"/>
+      <c r="B27" s="12"/>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="12"/>
       <c r="F27" t="s">
         <v>44</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="20"/>
+      <c r="H27" s="16"/>
       <c r="I27" t="s">
         <v>43</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="M27" s="15" t="s">
+      <c r="K27" s="12"/>
+      <c r="M27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N27" s="15">
-        <f>COUNTIF($F$4:$F$43,I27)</f>
+      <c r="N27" s="7">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O27" s="15">
-        <f>RANK(N27,$N$20:$N$34)</f>
+      <c r="O27" s="7">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B28" s="8"/>
+      <c r="B28" s="12"/>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="12"/>
       <c r="F28" t="s">
         <v>33</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="16"/>
       <c r="I28" t="s">
         <v>30</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="M28" s="15" t="s">
+      <c r="K28" s="12"/>
+      <c r="M28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="15">
-        <f>COUNTIF($F$4:$F$43,I28)</f>
+      <c r="N28" s="7">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O28" s="15">
-        <f>RANK(N28,$N$20:$N$34)</f>
+      <c r="O28" s="7">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B29" s="8"/>
+      <c r="B29" s="12"/>
       <c r="C29" t="s">
         <v>33</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="12"/>
       <c r="F29" t="s">
         <v>30</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" s="20"/>
+      <c r="H29" s="16"/>
       <c r="I29" t="s">
         <v>33</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="M29" s="15" t="s">
+      <c r="K29" s="12"/>
+      <c r="M29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="15">
-        <f>COUNTIF($F$4:$F$43,I29)</f>
+      <c r="N29" s="7">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O29" s="15">
-        <f>RANK(N29,$N$20:$N$34)</f>
+      <c r="O29" s="7">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B30" s="8"/>
+      <c r="B30" s="12"/>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="12"/>
       <c r="F30" t="s">
         <v>32</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="M30" s="15" t="s">
+      <c r="H30" s="16"/>
+      <c r="M30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="15">
-        <f>COUNTIF($F$4:$F$43,I30)</f>
+      <c r="N30" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O30" s="15">
-        <f>RANK(N30,$N$20:$N$34)</f>
+      <c r="O30" s="7">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B31" s="8"/>
+      <c r="B31" s="12"/>
       <c r="C31" t="s">
         <v>41</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="12"/>
       <c r="F31" t="s">
         <v>42</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="M31" s="15" t="s">
+      <c r="H31" s="16"/>
+      <c r="M31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N31" s="15">
-        <f>COUNTIF($F$4:$F$43,I31)</f>
+      <c r="N31" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O31" s="15">
-        <f>RANK(N31,$N$20:$N$34)</f>
+      <c r="O31" s="7">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B32" s="8"/>
+      <c r="B32" s="12"/>
       <c r="C32" t="s">
         <v>43</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="12"/>
       <c r="F32" t="s">
         <v>45</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" s="20"/>
-      <c r="M32" s="15" t="s">
+      <c r="H32" s="16"/>
+      <c r="M32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N32" s="15">
-        <f>COUNTIF($F$4:$F$43,I32)</f>
+      <c r="N32" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O32" s="15">
-        <f>RANK(N32,$N$20:$N$34)</f>
+      <c r="O32" s="7">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B33" s="8"/>
+      <c r="B33" s="12"/>
       <c r="C33" t="s">
         <v>30</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="12"/>
       <c r="F33" t="s">
         <v>43</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="M33" s="15" t="s">
+      <c r="H33" s="16"/>
+      <c r="M33" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N33" s="15">
-        <f>COUNTIF($F$4:$F$43,I33)</f>
+      <c r="N33" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O33" s="15">
-        <f>RANK(N33,$N$20:$N$34)</f>
+      <c r="O33" s="7">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="8"/>
+      <c r="B34" s="12"/>
       <c r="C34" t="s">
         <v>33</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="12"/>
       <c r="F34" t="s">
         <v>31</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="M34" s="15" t="s">
+      <c r="H34" s="16"/>
+      <c r="M34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N34" s="15">
-        <f>COUNTIF($F$4:$F$43,I34)</f>
+      <c r="N34" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O34" s="15">
-        <f>RANK(N34,$N$20:$N$34)</f>
+      <c r="O34" s="7">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B35" s="8"/>
+      <c r="B35" s="12"/>
       <c r="F35" t="s">
         <v>26</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B36" s="8"/>
+      <c r="B36" s="12"/>
       <c r="F36" t="s">
         <v>30</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B37" s="8"/>
+      <c r="B37" s="12"/>
       <c r="F37" t="s">
         <v>31</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B38" s="8"/>
+      <c r="B38" s="12"/>
       <c r="F38" t="s">
         <v>40</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B39" s="8"/>
+      <c r="B39" s="12"/>
       <c r="F39" t="s">
         <v>33</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B40" s="8"/>
+      <c r="B40" s="12"/>
       <c r="F40" t="s">
         <v>44</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B41" s="8"/>
+      <c r="B41" s="12"/>
       <c r="F41" t="s">
         <v>28</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B42" s="8"/>
+      <c r="B42" s="12"/>
       <c r="F42" t="s">
         <v>42</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B43" s="8"/>
+      <c r="B43" s="12"/>
       <c r="F43" t="s">
         <v>32</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B44" s="7"/>
+      <c r="B44" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:I44" xr:uid="{DA337F6C-9218-4F83-A998-773898878527}"/>
@@ -2703,7 +2400,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2727,16 +2424,16 @@
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
@@ -2818,12 +2515,12 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
@@ -2884,21 +2581,21 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2921,7 +2618,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="s">
@@ -2935,7 +2632,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="8"/>
+      <c r="B18" s="12"/>
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -2947,7 +2644,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="8"/>
+      <c r="B19" s="12"/>
       <c r="C19" t="s">
         <v>31</v>
       </c>
@@ -2959,7 +2656,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="8"/>
+      <c r="B20" s="12"/>
       <c r="C20" t="s">
         <v>33</v>
       </c>
@@ -2971,7 +2668,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="8"/>
+      <c r="B21" s="12"/>
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -2983,7 +2680,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="8"/>
+      <c r="B22" s="12"/>
       <c r="C22" t="s">
         <v>28</v>
       </c>
@@ -2995,7 +2692,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="8"/>
+      <c r="B23" s="12"/>
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -3007,7 +2704,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="8"/>
+      <c r="B24" s="12"/>
       <c r="C24" t="s">
         <v>33</v>
       </c>
@@ -3019,7 +2716,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="8"/>
+      <c r="B25" s="12"/>
       <c r="C25" t="s">
         <v>32</v>
       </c>
@@ -3031,7 +2728,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="8"/>
+      <c r="B26" s="12"/>
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -3043,7 +2740,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="8"/>
+      <c r="B27" s="12"/>
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -3055,7 +2752,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="8"/>
+      <c r="B28" s="12"/>
       <c r="C28" t="s">
         <v>28</v>
       </c>
@@ -3067,7 +2764,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="8"/>
+      <c r="B29" s="12"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -3079,7 +2776,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="8"/>
+      <c r="B30" s="12"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -3091,7 +2788,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="8"/>
+      <c r="B31" s="12"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -3103,7 +2800,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="8"/>
+      <c r="B32" s="12"/>
       <c r="C32" t="s">
         <v>30</v>
       </c>
@@ -3112,7 +2809,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" s="8"/>
+      <c r="B33" s="12"/>
       <c r="C33" t="s">
         <v>28</v>
       </c>
@@ -3121,7 +2818,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" s="8"/>
+      <c r="B34" s="12"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -3130,7 +2827,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B35" s="8"/>
+      <c r="B35" s="12"/>
       <c r="C35" t="s">
         <v>31</v>
       </c>
@@ -3139,7 +2836,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="8"/>
+      <c r="B36" s="12"/>
       <c r="C36" t="s">
         <v>33</v>
       </c>
